--- a/12 - Registro Fotográfico_Laiana.xlsx
+++ b/12 - Registro Fotográfico_Laiana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_ 4600012567_Civil/02.PLANEJAMENTO/01 - Base de dados BI/Fotos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1917" documentId="13_ncr:40009_{F1C51237-8FEC-4A9C-9F3A-F1A2201B33B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D9C39A9-39DD-4A15-A71F-719A38BE876E}"/>
+  <xr:revisionPtr revIDLastSave="1919" documentId="13_ncr:40009_{F1C51237-8FEC-4A9C-9F3A-F1A2201B33B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29BB3060-F121-4C6C-BC69-998B0070A6E3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -50,43 +50,7 @@
     <t>ELETRICA</t>
   </si>
   <si>
-    <t>1º Plataforma do silenciador</t>
-  </si>
-  <si>
-    <t>2º Plataforma do silenciador</t>
-  </si>
-  <si>
-    <t>Fabricação dos guarda corpos da plataforma do silenciador</t>
-  </si>
-  <si>
-    <t>Desmontagem das fôrmas do Silenciador.</t>
-  </si>
-  <si>
-    <t>Desmontagem das fôrmas da canaleta do piso do prédio "C“</t>
-  </si>
-  <si>
-    <t>Aplicação de selador na parede (lado externo) do prédio da caldeira "E“</t>
-  </si>
-  <si>
-    <t>Demolição de uma base da estrutura provisória – piso do prédio da caldeira D”.</t>
-  </si>
-  <si>
-    <t>Montagem de suporte e tudo de PVC pra drenagem da laje das caldeiras D e E</t>
-  </si>
-  <si>
-    <t>Fabricação da 2º Plataforma do silenciador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escavação do piso externo </t>
-  </si>
-  <si>
-    <t>Montagem da estrutura do silenciador na base</t>
-  </si>
-  <si>
-    <t>Montagem do silenciador na estrutura</t>
-  </si>
-  <si>
-    <t>Concretagem do piso da laje do desaerador</t>
+    <t>fabricação das Tampas da canaleta entre as caldeiras C e D</t>
   </si>
 </sst>
 </file>
@@ -941,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,9 +941,6 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -988,9 +949,6 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -998,9 +956,6 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -1010,9 +965,6 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -1021,9 +973,6 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -1032,9 +981,6 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -1043,9 +989,6 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -1054,9 +997,6 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -1065,9 +1005,6 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -1076,9 +1013,6 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -1087,9 +1021,6 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -1098,9 +1029,6 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -1109,9 +1037,6 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -1120,9 +1045,6 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -1130,9 +1052,6 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>

--- a/12 - Registro Fotográfico_Laiana.xlsx
+++ b/12 - Registro Fotográfico_Laiana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_ 4600012567_Civil/02.PLANEJAMENTO/01 - Base de dados BI/Fotos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1919" documentId="13_ncr:40009_{F1C51237-8FEC-4A9C-9F3A-F1A2201B33B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29BB3060-F121-4C6C-BC69-998B0070A6E3}"/>
+  <xr:revisionPtr revIDLastSave="1935" documentId="13_ncr:40009_{F1C51237-8FEC-4A9C-9F3A-F1A2201B33B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78CBCBDA-5D60-4967-80D9-DC50204396C7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -50,7 +50,40 @@
     <t>ELETRICA</t>
   </si>
   <si>
-    <t>fabricação das Tampas da canaleta entre as caldeiras C e D</t>
+    <t>Inicio da pintura do piso</t>
+  </si>
+  <si>
+    <t>Preparação do piso para concretagem</t>
+  </si>
+  <si>
+    <t>Concretagen de canaletas do prédio da caldeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acoplamento e limpezas de conexões na tubulação de 20"-S3-14E-5449 </t>
+  </si>
+  <si>
+    <t>Armação das ferragens da estrutura dos leitos dos cabos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Içamento e montagem da tubulação de  20"-S3-14E-5449 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montagem da tubulação de  20"-S3-14E-5449 </t>
+  </si>
+  <si>
+    <t>Auxilio na inspeção da junta de expansão do silenciador</t>
+  </si>
+  <si>
+    <t>Içamento da tubulação da linha 20"-S3-14E-5449</t>
+  </si>
+  <si>
+    <t>Montagem spool da tubulação da linha 20"-S3-13E-5449</t>
+  </si>
+  <si>
+    <t>Pintura da parede interna</t>
+  </si>
+  <si>
+    <t>Construção de caminho seguro</t>
   </si>
 </sst>
 </file>
@@ -906,7 +939,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,6 +974,9 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -949,6 +985,9 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -956,6 +995,9 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -965,6 +1007,9 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -973,6 +1018,9 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -981,6 +1029,9 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -989,6 +1040,9 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -997,6 +1051,9 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -1005,6 +1062,9 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -1013,6 +1073,9 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -1021,6 +1084,9 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -1029,6 +1095,9 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -1036,6 +1105,9 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>

--- a/12 - Registro Fotográfico_Laiana.xlsx
+++ b/12 - Registro Fotográfico_Laiana.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_ 4600012567_Civil/02.PLANEJAMENTO/01 - Base de dados BI/Fotos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1935" documentId="13_ncr:40009_{F1C51237-8FEC-4A9C-9F3A-F1A2201B33B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78CBCBDA-5D60-4967-80D9-DC50204396C7}"/>
+  <xr:revisionPtr revIDLastSave="1961" documentId="13_ncr:40009_{F1C51237-8FEC-4A9C-9F3A-F1A2201B33B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C061258-7FBC-4A20-9948-8FF8F4EA58CA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -50,40 +50,25 @@
     <t>ELETRICA</t>
   </si>
   <si>
-    <t>Inicio da pintura do piso</t>
+    <t>Pintura do piso do prédio da caldeira</t>
   </si>
   <si>
-    <t>Preparação do piso para concretagem</t>
+    <t>Aplicação do PU nas bases do silenciador</t>
   </si>
   <si>
-    <t>Concretagen de canaletas do prédio da caldeira</t>
+    <t xml:space="preserve"> Pintura da parede externa do prédio da caldeira “D”</t>
   </si>
   <si>
-    <t xml:space="preserve">Acoplamento e limpezas de conexões na tubulação de 20"-S3-14E-5449 </t>
+    <t>Desmontagem da fôrma da base do suporte do cable rack</t>
   </si>
   <si>
-    <t>Armação das ferragens da estrutura dos leitos dos cabos</t>
+    <t>Montagem das telas para concretagem do piso externo</t>
   </si>
   <si>
-    <t xml:space="preserve">Içamento e montagem da tubulação de  20"-S3-14E-5449 </t>
+    <t>Aplicação de PU na junta de dilatação das bases do silenciador</t>
   </si>
   <si>
-    <t xml:space="preserve">Montagem da tubulação de  20"-S3-14E-5449 </t>
-  </si>
-  <si>
-    <t>Auxilio na inspeção da junta de expansão do silenciador</t>
-  </si>
-  <si>
-    <t>Içamento da tubulação da linha 20"-S3-14E-5449</t>
-  </si>
-  <si>
-    <t>Montagem spool da tubulação da linha 20"-S3-13E-5449</t>
-  </si>
-  <si>
-    <t>Pintura da parede interna</t>
-  </si>
-  <si>
-    <t>Construção de caminho seguro</t>
+    <t>Desmontagem de barreira fisica utilizada para sapata</t>
   </si>
 </sst>
 </file>
@@ -939,7 +924,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -986,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -997,7 +982,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -1051,9 +1036,6 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -1062,9 +1044,6 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -1073,9 +1052,6 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -1084,9 +1060,6 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -1095,9 +1068,6 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -1105,9 +1075,6 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>

--- a/12 - Registro Fotográfico_Laiana.xlsx
+++ b/12 - Registro Fotográfico_Laiana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_ 4600012567_Civil/02.PLANEJAMENTO/01 - Base de dados BI/Fotos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1961" documentId="13_ncr:40009_{F1C51237-8FEC-4A9C-9F3A-F1A2201B33B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C061258-7FBC-4A20-9948-8FF8F4EA58CA}"/>
+  <xr:revisionPtr revIDLastSave="1996" documentId="13_ncr:40009_{F1C51237-8FEC-4A9C-9F3A-F1A2201B33B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC993D57-7E3F-406E-B41E-58D04D11193C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -69,6 +69,45 @@
   </si>
   <si>
     <t>Desmontagem de barreira fisica utilizada para sapata</t>
+  </si>
+  <si>
+    <t>Foi dado início a montagem e preparação de peças do Tie-in 161- tag 8-S3-14E- 5384 do silenciador</t>
+  </si>
+  <si>
+    <t>Pintura do piso térreo da caldeira D&amp;E</t>
+  </si>
+  <si>
+    <t>Aplicação de PU na junta de dilatação do piso externo em frente ao prédio das caldeiras</t>
+  </si>
+  <si>
+    <t>Pintura do piso Terreo do prédio das caldeiras</t>
+  </si>
+  <si>
+    <t>Acabamento do rodapé da laje do Desareador</t>
+  </si>
+  <si>
+    <t>Montagem da tubulação da linha de 20" S3-14E-5449</t>
+  </si>
+  <si>
+    <t>Montagem da válvula do TIE-IN 161</t>
+  </si>
+  <si>
+    <t>Montagem da tubulação do TIE-IN 161</t>
+  </si>
+  <si>
+    <t>montagem de dreno de 1”1/2 do(Tie-in 161- tag 5384)</t>
+  </si>
+  <si>
+    <t>Escavação (rebaixamento do solo) para construção do piso externo, ao lado do piso do flash tanque</t>
+  </si>
+  <si>
+    <t>Aperto da junta de parafusos da expansão do silenciador, e destravamento</t>
+  </si>
+  <si>
+    <t>Montagem e solda de patim, solda de tampão da unha de sustentação da tubulação de silenciador</t>
+  </si>
+  <si>
+    <t>Montagem de guarda corpo da plataforma do silenciador</t>
   </si>
 </sst>
 </file>
@@ -613,8 +652,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="FOTOS_ATIVIDADES" displayName="FOTOS_ATIVIDADES" ref="A1:C45" totalsRowShown="0">
-  <autoFilter ref="A1:C45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="FOTOS_ATIVIDADES" displayName="FOTOS_ATIVIDADES" ref="A1:C49" totalsRowShown="0">
+  <autoFilter ref="A1:C49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descrição"/>
@@ -921,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,6 +1075,9 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -1044,6 +1086,9 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -1052,6 +1097,9 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -1060,6 +1108,9 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -1068,6 +1119,9 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -1076,6 +1130,9 @@
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -1084,6 +1141,9 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -1092,6 +1152,9 @@
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -1100,6 +1163,9 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -1108,6 +1174,9 @@
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -1116,6 +1185,9 @@
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -1124,6 +1196,9 @@
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -1132,6 +1207,9 @@
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -1140,6 +1218,9 @@
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -1148,6 +1229,9 @@
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -1156,6 +1240,9 @@
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -1164,6 +1251,9 @@
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -1172,45 +1262,57 @@
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
       <c r="C27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -1218,7 +1320,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -1226,7 +1328,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -1234,7 +1336,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -1242,7 +1344,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -1250,7 +1352,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1258,7 +1360,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -1266,7 +1368,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -1274,7 +1376,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -1282,7 +1384,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1290,7 +1392,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -1298,7 +1400,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -1306,7 +1408,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -1314,9 +1416,41 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>18</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C49" t="s">
         <v>4</v>
       </c>
     </row>

--- a/12 - Registro Fotográfico_Laiana.xlsx
+++ b/12 - Registro Fotográfico_Laiana.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_ 4600012567_Civil/02.PLANEJAMENTO/01 - Base de dados BI/Fotos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1996" documentId="13_ncr:40009_{F1C51237-8FEC-4A9C-9F3A-F1A2201B33B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC993D57-7E3F-406E-B41E-58D04D11193C}"/>
+  <xr:revisionPtr revIDLastSave="2019" documentId="13_ncr:40009_{F1C51237-8FEC-4A9C-9F3A-F1A2201B33B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2264616F-160A-47E4-9818-843B643608A8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atividades" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -50,64 +50,22 @@
     <t>ELETRICA</t>
   </si>
   <si>
-    <t>Pintura do piso do prédio da caldeira</t>
+    <t>Acabamento nas canaletas da caldeira</t>
   </si>
   <si>
-    <t>Aplicação do PU nas bases do silenciador</t>
+    <t>Demolição de uma base no prédio da caldeira</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pintura da parede externa do prédio da caldeira “D”</t>
+    <t>Pintura da laje da caldeira</t>
   </si>
   <si>
-    <t>Desmontagem da fôrma da base do suporte do cable rack</t>
+    <t>Execução de bases  na área 14C</t>
   </si>
   <si>
-    <t>Montagem das telas para concretagem do piso externo</t>
+    <t>Grauteamento final das bases da 14.A</t>
   </si>
   <si>
-    <t>Aplicação de PU na junta de dilatação das bases do silenciador</t>
-  </si>
-  <si>
-    <t>Desmontagem de barreira fisica utilizada para sapata</t>
-  </si>
-  <si>
-    <t>Foi dado início a montagem e preparação de peças do Tie-in 161- tag 8-S3-14E- 5384 do silenciador</t>
-  </si>
-  <si>
-    <t>Pintura do piso térreo da caldeira D&amp;E</t>
-  </si>
-  <si>
-    <t>Aplicação de PU na junta de dilatação do piso externo em frente ao prédio das caldeiras</t>
-  </si>
-  <si>
-    <t>Pintura do piso Terreo do prédio das caldeiras</t>
-  </si>
-  <si>
-    <t>Acabamento do rodapé da laje do Desareador</t>
-  </si>
-  <si>
-    <t>Montagem da tubulação da linha de 20" S3-14E-5449</t>
-  </si>
-  <si>
-    <t>Montagem da válvula do TIE-IN 161</t>
-  </si>
-  <si>
-    <t>Montagem da tubulação do TIE-IN 161</t>
-  </si>
-  <si>
-    <t>montagem de dreno de 1”1/2 do(Tie-in 161- tag 5384)</t>
-  </si>
-  <si>
-    <t>Escavação (rebaixamento do solo) para construção do piso externo, ao lado do piso do flash tanque</t>
-  </si>
-  <si>
-    <t>Aperto da junta de parafusos da expansão do silenciador, e destravamento</t>
-  </si>
-  <si>
-    <t>Montagem e solda de patim, solda de tampão da unha de sustentação da tubulação de silenciador</t>
-  </si>
-  <si>
-    <t>Montagem de guarda corpo da plataforma do silenciador</t>
+    <t>Acabamento da canaletas do prédio da caldeira.</t>
   </si>
 </sst>
 </file>
@@ -591,8 +549,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -962,17 +921,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="99" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -983,7 +942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -994,315 +953,258 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
       <c r="C25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
       <c r="C26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
       <c r="C27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
       <c r="C28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
       <c r="C29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
       <c r="C30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1310,7 +1212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1318,7 +1220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1326,7 +1228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1334,7 +1236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1342,7 +1244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -1350,7 +1252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6</v>
       </c>
@@ -1358,7 +1260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7</v>
       </c>
@@ -1366,7 +1268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8</v>
       </c>
@@ -1374,7 +1276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -1382,7 +1284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10</v>
       </c>
@@ -1390,7 +1292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>11</v>
       </c>
@@ -1398,7 +1300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12</v>
       </c>
@@ -1406,7 +1308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>13</v>
       </c>
@@ -1414,7 +1316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>14</v>
       </c>
@@ -1422,7 +1324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>15</v>
       </c>
@@ -1430,7 +1332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>16</v>
       </c>
@@ -1438,7 +1340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>17</v>
       </c>
@@ -1446,7 +1348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>18</v>
       </c>

--- a/12 - Registro Fotográfico_Laiana.xlsx
+++ b/12 - Registro Fotográfico_Laiana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_ 4600012567_Civil/02.PLANEJAMENTO/01 - Base de dados BI/Fotos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2019" documentId="13_ncr:40009_{F1C51237-8FEC-4A9C-9F3A-F1A2201B33B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2264616F-160A-47E4-9818-843B643608A8}"/>
+  <xr:revisionPtr revIDLastSave="2031" documentId="13_ncr:40009_{F1C51237-8FEC-4A9C-9F3A-F1A2201B33B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2155CA60-3BEF-4D38-837F-58E058DB2C75}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -50,22 +50,19 @@
     <t>ELETRICA</t>
   </si>
   <si>
-    <t>Acabamento nas canaletas da caldeira</t>
-  </si>
-  <si>
-    <t>Demolição de uma base no prédio da caldeira</t>
+    <t>Acabamento da canaletas do prédio da caldeira.</t>
   </si>
   <si>
     <t>Pintura da laje da caldeira</t>
   </si>
   <si>
-    <t>Execução de bases  na área 14C</t>
+    <t xml:space="preserve">Grauteamento da base de suporte da eletrocalha frente do prédio da caldeira. </t>
   </si>
   <si>
-    <t>Grauteamento final das bases da 14.A</t>
+    <t>Acabamento nas base de suporte das eletrocalha</t>
   </si>
   <si>
-    <t>Acabamento da canaletas do prédio da caldeira.</t>
+    <t xml:space="preserve"> frizamento da parede na caldeira E</t>
   </si>
 </sst>
 </file>
@@ -922,7 +919,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -991,7 +988,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -1002,7 +999,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -1012,8 +1009,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -1034,18 +1031,13 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">

--- a/12 - Registro Fotográfico_Laiana.xlsx
+++ b/12 - Registro Fotográfico_Laiana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_ 4600012567_Civil/02.PLANEJAMENTO/01 - Base de dados BI/Fotos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2031" documentId="13_ncr:40009_{F1C51237-8FEC-4A9C-9F3A-F1A2201B33B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2155CA60-3BEF-4D38-837F-58E058DB2C75}"/>
+  <xr:revisionPtr revIDLastSave="2036" documentId="13_ncr:40009_{F1C51237-8FEC-4A9C-9F3A-F1A2201B33B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5D0CFDF-E754-493D-820E-3A755FDE61F8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -50,19 +50,13 @@
     <t>ELETRICA</t>
   </si>
   <si>
-    <t>Acabamento da canaletas do prédio da caldeira.</t>
+    <t xml:space="preserve">frizamento da parede externa da caldeira E área 56A;  </t>
   </si>
   <si>
-    <t>Pintura da laje da caldeira</t>
+    <t>Grauteamento da canaleta da caldeira.</t>
   </si>
   <si>
-    <t xml:space="preserve">Grauteamento da base de suporte da eletrocalha frente do prédio da caldeira. </t>
-  </si>
-  <si>
-    <t>Acabamento nas base de suporte das eletrocalha</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> frizamento da parede na caldeira E</t>
+    <t>Assentamento de cerâmica no banheiro da 97.</t>
   </si>
 </sst>
 </file>
@@ -919,7 +913,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +971,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -987,9 +981,6 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -998,9 +989,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -1009,9 +998,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -1020,9 +1007,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" t="s">
         <v>3</v>
       </c>
